--- a/桃太郎最強伝説/桃太郎最強伝説/Book4.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book4.xlsx
@@ -90,7 +90,518 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="80">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -443,7 +954,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2559,34 +3070,34 @@
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="1">
         <v>0</v>
@@ -2944,19 +3455,19 @@
         <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="1">
         <v>1</v>
@@ -3126,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="1">
         <v>1</v>
@@ -3233,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
         <v>1</v>
@@ -3296,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="1">
         <v>1</v>
@@ -3403,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="1">
         <v>1</v>
@@ -3466,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="1">
         <v>1</v>
@@ -3573,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="1">
         <v>1</v>
@@ -3636,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="1">
         <v>1</v>
@@ -3743,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
         <v>1</v>
@@ -3806,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="1">
         <v>1</v>
@@ -3913,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
         <v>1</v>
@@ -3976,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>1</v>
@@ -4083,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="1">
         <v>1</v>
@@ -4146,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="1">
         <v>1</v>
@@ -4253,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
         <v>1</v>
@@ -4316,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
         <v>1</v>
@@ -4486,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="1">
         <v>1</v>
@@ -5306,22 +5817,22 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <v>0</v>
@@ -6463,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="1">
         <v>1</v>
@@ -6633,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="1">
         <v>1</v>
@@ -6803,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="1">
         <v>1</v>
@@ -6973,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="U39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="1">
         <v>1</v>
@@ -7143,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="1">
         <v>1</v>
@@ -9974,38 +10485,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:AS48">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:AT47">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/桃太郎最強伝説/桃太郎最強伝説/Book4.xlsx
+++ b/桃太郎最強伝説/桃太郎最強伝説/Book4.xlsx
@@ -90,518 +90,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -954,7 +443,7 @@
   <dimension ref="A1:BD56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3959,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="AK18" s="1">
         <v>0</v>
@@ -10485,38 +9974,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BD56">
-    <cfRule type="cellIs" dxfId="79" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:AS48">
-    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:AT47">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
